--- a/ToDelete/ODS_Beschrijving_PartyMasterDataManagement_AFC_R3.xlsx
+++ b/ToDelete/ODS_Beschrijving_PartyMasterDataManagement_AFC_R3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CMDB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CMDB\ToDelete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="767">
   <si>
     <t>oracle.dbtools.crest.model.design.relational.Table</t>
   </si>
@@ -1528,9 +1528,6 @@
     <t>5643FEAC-E7F8-9449-6A6A-9FB7ECCFB1EC</t>
   </si>
   <si>
-    <t>Naam ODS</t>
-  </si>
-  <si>
     <t>Opmerking</t>
   </si>
   <si>
@@ -2143,24 +2140,12 @@
     <t>IS_EDITABLE</t>
   </si>
   <si>
-    <t>LAAT_SECUNDAIRE_PARTIJ_TOE</t>
-  </si>
-  <si>
-    <t>ALLOW_SECONDARY_PARTY</t>
-  </si>
-  <si>
     <t>PERSOONPROFIEL_GROEP_ID</t>
   </si>
   <si>
     <t>PROFILE_GROUP_ID</t>
   </si>
   <si>
-    <t>PRIMAIR_PROFIEL</t>
-  </si>
-  <si>
-    <t>CHARACTERIZES_PRM_BENEFIC</t>
-  </si>
-  <si>
     <t>RELEVANT_VOOR_KAART</t>
   </si>
   <si>
@@ -2206,12 +2191,6 @@
     <t>PERSON_PROFILE_ID</t>
   </si>
   <si>
-    <t>PRIMAIRE_PARTIJ_CODE</t>
-  </si>
-  <si>
-    <t>PRIMARYPARTY_CODE</t>
-  </si>
-  <si>
     <t>WERKLOCATIES</t>
   </si>
   <si>
@@ -2230,9 +2209,6 @@
     <t>00.01</t>
   </si>
   <si>
-    <t>Naam DB</t>
-  </si>
-  <si>
     <t>HOOFD_OBJECT_ID</t>
   </si>
   <si>
@@ -2249,6 +2225,120 @@
   </si>
   <si>
     <t>WORKLOCATIONS1</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>RAW(16)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(16 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(255 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(64 CHAR)</t>
+  </si>
+  <si>
+    <t>STRAAT_NUMBER</t>
+  </si>
+  <si>
+    <t>ZOEK_STRAAT</t>
+  </si>
+  <si>
+    <t>STREET_SEARCH</t>
+  </si>
+  <si>
+    <t>VARCHAR2(287 CHAR)</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>VARCHAR2(2000 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(2000 CHAR</t>
+  </si>
+  <si>
+    <t>NUMBER(10,0)</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>VARCHAR2(64 CHAR</t>
+  </si>
+  <si>
+    <t>NUMBER(1,0)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(256 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(500 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(9 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(5 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(50 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(19 CHAR)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(32 CHAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VARCHAR2(2 CHAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VARCHAR2(3 CHAR)</t>
+  </si>
+  <si>
+    <t>NUMBER(2,0)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(250 CHAR)</t>
+  </si>
+  <si>
+    <t>CALL_NAME</t>
+  </si>
+  <si>
+    <t>ROEPNAAM</t>
+  </si>
+  <si>
+    <t>FIRST_NAME_SEARCH</t>
+  </si>
+  <si>
+    <t>LAST_NAME_SEARCH</t>
+  </si>
+  <si>
+    <t>ZOEK_VOORNAAM</t>
+  </si>
+  <si>
+    <t>ZOEK_ACHTERNAAM</t>
+  </si>
+  <si>
+    <t>NUMBER(4,0)</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VARCHAR2(11 CHAR)</t>
+  </si>
+  <si>
+    <t>PRIMARY_PROFILE_ID</t>
+  </si>
+  <si>
+    <t>PRIMAIR_PROFIEL_ID</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2337,11 +2427,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2363,12 +2518,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2376,9 +2525,37 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2489,7 +2666,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="kapsch_CMYK_71mm_blackyellow_300dpi"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="kapsch_CMYK_71mm_blackyellow_300dpi">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2562,7 +2745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1192" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1192" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000A8040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2607,9 +2796,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2647,7 +2836,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2753,7 +2942,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2942,16 +3131,16 @@
     <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>500</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2959,13 +3148,13 @@
         <v>42439</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -4567,2543 +4756,3921 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D409"/>
+  <dimension ref="A2:F407"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A384" workbookViewId="0">
-      <selection activeCell="B402" sqref="B402"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B254" workbookViewId="0">
+      <selection activeCell="D273" sqref="D273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="30.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="2"/>
+    <col min="5" max="5" width="22" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>502</v>
-      </c>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="4" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" s="4" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="4" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C24" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C34" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C35" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C45" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C46" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C47" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C50" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C51" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C59" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C61" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C63" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C64" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="8"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C67" s="9"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C74" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C75" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C77" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C78" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="8"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C87" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C88" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C89" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C90" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C91" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="C28" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C95" s="9"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C99" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C100" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C101" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C102" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C103" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="8"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C106" s="9"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C110" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C111" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C112" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E112" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F112" s="12"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C113" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E113" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C114" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C115" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C116" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C117" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C118" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C119" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C120" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="8"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C124" s="9"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B126" s="5"/>
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C128" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C129" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C130" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C131" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E131" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F131" s="12"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C132" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E132" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C133" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C134" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F134" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C135" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C136" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="E136" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C137" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C141" s="9"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B143" s="5"/>
+      <c r="C143" s="5"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+    </row>
+    <row r="145" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C145" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E145" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F145" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C146" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C147" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E147" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F147" s="12"/>
+    </row>
+    <row r="148" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C148" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C149" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C150" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E150" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C151" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C152" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="E152" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F152" s="12"/>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C153" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E153" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C154" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E154" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C155" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E155" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C156" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F156" s="12"/>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C157" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="F157" s="12"/>
+    </row>
+    <row r="158" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C158" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="E158" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="F158" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="8"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C162" s="9"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C165" s="6"/>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C166" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C167" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C168" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C169" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C170" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>593</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C171" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="8"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C176" s="9"/>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C180" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E180" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F180" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C181" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D181" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F181" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C182" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D182" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E182" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F182" s="12"/>
+    </row>
+    <row r="183" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C183" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C184" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D184" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C185" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C186" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>597</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C187" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C188" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F188" s="12"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C189" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E189" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F189" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C190" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="D190" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="E190" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F190" s="12"/>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C191" s="4" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C36" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="10"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C40" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C44" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="4" t="s">
+      <c r="D191" s="11" t="s">
+        <v>602</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="F191" s="12"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="8"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="C194" s="9"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C198" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D198" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E198" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C199" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F199" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C200" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D200" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E200" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F200" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C201" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E201" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F201" s="12"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C202" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D202" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E202" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C203" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D203" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C204" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D204" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E204" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C205" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D205" s="11" t="s">
+        <v>606</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C206" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D206" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="F206" s="12"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C207" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="D207" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C208" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="D208" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F208" s="12"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="8"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="C212" s="9"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C216" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D216" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E216" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C217" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D217" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E217" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C218" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D218" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E218" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="F218" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C219" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E219" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F219" s="12"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C220" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D220" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C221" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D221" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E221" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C222" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D222" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E222" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F222" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C223" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D223" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E223" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C224" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="D224" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C225" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D225" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E225" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C226" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="D226" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="8"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="C231" s="9"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C235" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D235" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E235" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C236" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D236" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F236" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C237" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D237" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C238" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="D238" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="F238" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C239" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D239" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F239" s="12"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C240" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D240" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E240" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C241" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D241" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E241" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F241" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C242" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D242" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F242" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C243" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D243" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C244" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="E244" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F244" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C245" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="E245" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F245" s="12"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="8"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="C248" s="9"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B250" s="5"/>
+      <c r="C250" s="5"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C252" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C253" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C254" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="E254" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F254" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C255" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="E255" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F255" s="12"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C256" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="E256" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="F256" s="12"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C257" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F257" s="12"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C258" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D258" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E258" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F258" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C259" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D259" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E259" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C260" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D260" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E260" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F260" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C261" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D261" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E261" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F261" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C262" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D262" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="E262" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F262" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C263" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="D263" s="11" t="s">
+        <v>634</v>
+      </c>
+      <c r="E263" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F263" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C264" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="E264" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F264" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C265" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="E265" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F265" s="12"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C266" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="D266" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="E266" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F266" s="12"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="8"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="C269" s="9"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C273" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="D273" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E273" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F273" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C274" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D274" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F274" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="8"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="C277" s="9"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B279" s="5"/>
+      <c r="C279" s="5"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C281" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D281" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E281" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F281" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C282" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D282" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E282" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F282" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C283" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D283" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E283" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F283" s="12"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C284" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D284" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E284" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F284" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C285" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D285" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E285" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F285" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C286" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="D286" s="11" t="s">
+        <v>646</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F286" s="12"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C287" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D287" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F287" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C288" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D288" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="F288" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C289" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="D289" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="E289" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F289" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C290" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D290" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E290" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="F290" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="8"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C293" s="9"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B295" s="5"/>
+      <c r="C295" s="5"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C296" s="6"/>
+      <c r="D296" s="6"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C297" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D297" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E297" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F297" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C298" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D298" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E298" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F298" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C299" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D299" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="E299" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="F299" s="12"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C300" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="D300" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="E300" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="F300" s="12"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C301" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D301" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="E301" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F301" s="12"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C302" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="D302" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="E302" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F302" s="12"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C303" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="D303" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="E303" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F303" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C304" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D304" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="E304" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F304" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="305" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C305" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D305" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E305" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F305" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="306" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C306" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="D306" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="E306" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F306" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="307" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C307" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="D307" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="E307" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="F307" s="12"/>
+    </row>
+    <row r="308" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C308" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>664</v>
+      </c>
+      <c r="E308" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="F308" s="12"/>
+    </row>
+    <row r="309" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C309" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="D309" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="E309" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="F309" s="12"/>
+    </row>
+    <row r="310" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C310" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="D310" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="E310" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="F310" s="12"/>
+    </row>
+    <row r="311" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C311" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="D311" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="E311" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F311" s="12"/>
+    </row>
+    <row r="312" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C312" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D312" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E312" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F312" s="12"/>
+    </row>
+    <row r="313" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C313" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D313" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E313" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F313" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="314" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C314" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D314" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="E314" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="F314" s="12"/>
+    </row>
+    <row r="315" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C315" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D315" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E315" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F315" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="316" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C316" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D316" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E316" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F316" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="317" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C317" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D317" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E317" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F317" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="318" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C318" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D318" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="E318" s="12" t="s">
+        <v>764</v>
+      </c>
+      <c r="F318" s="12"/>
+    </row>
+    <row r="319" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C319" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D319" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="E319" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F319" s="12"/>
+    </row>
+    <row r="320" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C320" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D320" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="E320" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F320" s="12"/>
+    </row>
+    <row r="321" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C321" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="D321" s="11" t="s">
+        <v>676</v>
+      </c>
+      <c r="E321" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F321" s="12"/>
+    </row>
+    <row r="322" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C322" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="D322" s="11" t="s">
+        <v>678</v>
+      </c>
+      <c r="E322" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F322" s="12"/>
+    </row>
+    <row r="323" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C323" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D323" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E323" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="F323" s="12"/>
+    </row>
+    <row r="324" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C324" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="D324" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="E324" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F324" s="12"/>
+    </row>
+    <row r="325" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C325" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D325" s="11" t="s">
+        <v>682</v>
+      </c>
+      <c r="E325" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F325" s="12"/>
+    </row>
+    <row r="326" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C326" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="D326" s="11" t="s">
+        <v>684</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="F326" s="12"/>
+    </row>
+    <row r="327" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C327" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="D327" s="11" t="s">
+        <v>686</v>
+      </c>
+      <c r="E327" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="F327" s="12"/>
+    </row>
+    <row r="328" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C328" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="D328" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="E328" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="F328" s="12"/>
+    </row>
+    <row r="329" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C329" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D329" s="11" t="s">
+        <v>690</v>
+      </c>
+      <c r="E329" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C46" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C47" s="4" t="s">
+      <c r="F329" s="12"/>
+    </row>
+    <row r="330" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C330" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="D330" s="11" t="s">
+        <v>692</v>
+      </c>
+      <c r="E330" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F330" s="12"/>
+    </row>
+    <row r="331" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C331" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D331" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E331" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="F331" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="332" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C332" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="D332" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="E332" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F332" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="333" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C333" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D333" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="E333" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="F333" s="15"/>
+    </row>
+    <row r="334" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C334" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="D334" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="E334" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F334" s="12"/>
+    </row>
+    <row r="335" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C335" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="D335" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="E335" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F335" s="12"/>
+    </row>
+    <row r="336" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C336" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="D336" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="E336" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F336" s="12"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A338" s="3"/>
+      <c r="B338" s="3"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A339" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="C339" s="8"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C340" s="9"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C341" s="5"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C342" s="6"/>
+      <c r="D342" s="6"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C343" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D343" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E343" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F343" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C344" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D344" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E344" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F344" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C345" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D345" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E345" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F345" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C346" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D346" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E346" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F346" s="12"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C347" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D347" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E347" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F347" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C348" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D348" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E348" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F348" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C349" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D349" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E349" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F349" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C350" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D350" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C48" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C49" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C50" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="10.8" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="10"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="C54" s="11"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C58" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C59" s="4" t="s">
+      <c r="E350" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F350" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C351" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="D351" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="E351" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F351" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C352" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D352" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="E352" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="F352" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C353" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D353" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="E353" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F353" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C354" s="4" t="s">
+        <v>766</v>
+      </c>
+      <c r="D354" s="11" t="s">
+        <v>765</v>
+      </c>
+      <c r="E354" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F354" s="12"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C355" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="D355" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="E355" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F355" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="3"/>
+      <c r="B357" s="3"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="C358" s="8"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C359" s="9"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B360" s="5"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C361" s="6"/>
+      <c r="D361" s="6"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C362" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D362" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F362" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C363" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D363" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E363" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F363" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C364" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="D364" s="11" t="s">
+        <v>658</v>
+      </c>
+      <c r="E364" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F364" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C365" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D365" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E365" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="F365" s="12"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C366" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D366" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E366" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="F366" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C367" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D367" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E367" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F367" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C368" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D368" s="11" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C60" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C61" s="4" t="s">
+      <c r="E368" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F368" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C369" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D369" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C62" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C63" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="10"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="C66" s="11"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C72" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C73" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C74" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C75" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C76" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C77" s="4" t="s">
+      <c r="E369" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F369" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C370" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D370" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="D77" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="10"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="C82" s="11"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C86" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C87" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C88" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C89" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C90" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="10"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="C94" s="11"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C98" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C99" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C100" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C101" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C102" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="10"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="C105" s="11"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B107" s="5"/>
-      <c r="C107" s="5"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C109" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C110" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C111" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C112" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C113" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C114" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C115" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C116" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C117" s="4" t="s">
-        <v>569</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C118" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C119" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
-      <c r="C122" s="10"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="C123" s="11"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B125" s="5"/>
-      <c r="C125" s="5"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C127" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C128" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C129" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C130" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C131" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C132" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C133" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C134" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C135" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C136" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="10"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="C140" s="11"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C144" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C145" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C146" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C147" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C148" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C149" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C150" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C151" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C152" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C153" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C154" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C155" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C156" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C157" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="10"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="C161" s="11"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B163" s="5"/>
-      <c r="C163" s="5"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C164" s="6"/>
-      <c r="D164" s="6"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C165" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C166" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C167" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C168" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C169" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C170" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
-      <c r="C174" s="10"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
-        <v>595</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="C175" s="11"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C179" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C180" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C181" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C182" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C183" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C184" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C185" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C186" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C187" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C188" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C189" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C190" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
-      <c r="C192" s="10"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="C193" s="11"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B195" s="5"/>
-      <c r="C195" s="5"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C197" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C198" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C199" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C200" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C201" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C202" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C203" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C204" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C205" s="4" t="s">
-        <v>604</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C206" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C207" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="10"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="C211" s="11"/>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B213" s="5"/>
-      <c r="C213" s="5"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C214" s="6"/>
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C215" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C216" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C217" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C218" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C219" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C220" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C221" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C222" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C223" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C224" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C225" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
-      <c r="C229" s="10"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="C230" s="11"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C234" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C235" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C236" s="4" t="s">
-        <v>620</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C237" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C238" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C239" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C240" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D240" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C241" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C242" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C243" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D243" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C244" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="D244" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
-      <c r="C246" s="10"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A247" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="C247" s="11"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B249" s="5"/>
-      <c r="C249" s="5"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C251" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C252" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C253" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C254" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C255" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="D255" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C256" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C257" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C258" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C259" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C260" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C261" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C262" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="D262" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C263" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C264" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="D264" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C265" s="4" t="s">
-        <v>639</v>
-      </c>
-      <c r="D265" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
-      <c r="C267" s="10"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A268" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>642</v>
-      </c>
-      <c r="C268" s="11"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B270" s="5"/>
-      <c r="C270" s="5"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C271" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D271" s="6" t="s">
+      <c r="E370" s="12" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C272" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="D272" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C273" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D273" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3"/>
-      <c r="C275" s="10"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A276" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C276" s="11"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B278" s="5"/>
-      <c r="C278" s="5"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C279" s="6"/>
-      <c r="D279" s="6"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C280" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C281" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C282" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D282" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C283" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C284" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D284" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C285" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C286" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D286" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C287" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D287" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C288" s="4" t="s">
-        <v>648</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C289" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D289" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A291" s="3"/>
-      <c r="B291" s="3"/>
-      <c r="C291" s="10"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A292" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C292" s="11"/>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B294" s="5"/>
-      <c r="C294" s="5"/>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C295" s="6"/>
-      <c r="D295" s="6"/>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C296" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D296" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C297" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D297" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C298" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D298" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C299" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D299" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C300" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D300" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C301" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="D301" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C302" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="D302" s="4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C303" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="D303" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C304" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D304" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="305" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C305" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="D305" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="306" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C306" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="D306" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="307" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C307" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="D307" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="308" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C308" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="D308" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="309" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C309" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="D309" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="310" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C310" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="D310" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="311" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C311" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D311" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="312" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C312" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D312" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="313" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C313" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D313" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="314" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C314" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D314" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="315" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C315" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D315" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="316" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C316" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D316" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="317" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C317" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D317" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="318" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C318" s="4" t="s">
-        <v>586</v>
-      </c>
-      <c r="D318" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="319" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C319" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="D319" s="4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="320" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C320" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="D320" s="4" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C321" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="D321" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C322" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D322" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C323" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="D323" s="4" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C324" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="D324" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C325" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="D325" s="4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C326" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="D326" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C327" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="D327" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C328" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="D328" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C329" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="D329" s="4" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C330" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="D330" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C331" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="D331" s="4" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C332" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D332" s="4" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A335" s="3"/>
-      <c r="B335" s="3"/>
-      <c r="C335" s="10"/>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A336" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="B336" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="C336" s="11"/>
-    </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B338" s="5"/>
-      <c r="C338" s="5"/>
-    </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C339" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="D339" s="6" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C340" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D340" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C341" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D341" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C342" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D342" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C343" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C344" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C345" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D345" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C346" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D346" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C347" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D347" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C348" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="D348" s="4" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C349" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="D349" s="4" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C350" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="D350" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C351" s="4" t="s">
-        <v>703</v>
-      </c>
-      <c r="D351" s="4" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C352" s="4" t="s">
-        <v>705</v>
-      </c>
-      <c r="D352" s="4" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C353" s="4" t="s">
+      <c r="F370" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C371" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="D353" s="4" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A356" s="3"/>
-      <c r="B356" s="3"/>
-      <c r="C356" s="10"/>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A357" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>710</v>
-      </c>
-      <c r="C357" s="11"/>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B359" s="5"/>
-      <c r="C359" s="5"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C360" s="6"/>
-      <c r="D360" s="6"/>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C361" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D361" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C362" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D362" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C363" s="4" t="s">
-        <v>711</v>
-      </c>
-      <c r="D363" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C364" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D364" s="4" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C365" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D365" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C366" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D366" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C367" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D367" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C368" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D368" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C369" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D369" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C370" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="D370" s="4" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D371" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="E371" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F371" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
-      <c r="C373" s="10"/>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="C374" s="11"/>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+        <v>709</v>
+      </c>
+      <c r="C374" s="8"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C375" s="9"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B376" s="5"/>
-      <c r="C376" s="5"/>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C377" s="6"/>
       <c r="D377" s="6"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C378" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D378" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D378" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E378" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F378" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C379" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D379" s="4" t="s">
+      <c r="D379" s="11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E379" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F379" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C380" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="D380" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="E380" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F380" s="12"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C381" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="E381" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F381" s="12"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C382" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="D382" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="D380" s="4" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C381" s="4" t="s">
-        <v>717</v>
-      </c>
-      <c r="D381" s="4" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C382" s="4" t="s">
-        <v>719</v>
-      </c>
-      <c r="D382" s="4" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E382" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="F382" s="12"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C383" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="D383" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="D383" s="4" t="s">
+      <c r="E383" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F383" s="12"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C384" s="4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C384" s="4" t="s">
+      <c r="D384" s="11" t="s">
         <v>513</v>
       </c>
-      <c r="D384" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E384" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F384" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C385" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D385" s="4" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D385" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E385" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F385" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C386" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D386" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D386" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E386" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F386" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C387" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D387" s="4" t="s">
+      <c r="D387" s="11" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E387" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F387" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C388" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="D388" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="D388" s="4" t="s">
+      <c r="E388" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="F388" s="12"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C389" s="4" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C389" s="4" t="s">
+      <c r="D389" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="D389" s="4" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E389" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F389" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C390" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D390" s="4" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C391" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D391" s="4" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" ht="10.8" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A393" s="3"/>
-      <c r="B393" s="3"/>
-      <c r="C393" s="10"/>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A394" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>725</v>
-      </c>
-      <c r="C394" s="11"/>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B396" s="5"/>
-      <c r="C396" s="5"/>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C397" s="6"/>
-      <c r="D397" s="6"/>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D390" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="E390" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F390" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" ht="10.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C391" s="9"/>
+      <c r="D391" s="9"/>
+      <c r="E391" s="16"/>
+      <c r="F391" s="16"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A392" s="3"/>
+      <c r="B392" s="3"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A393" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="C393" s="8"/>
+    </row>
+    <row r="394" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C394" s="9"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B395" s="5"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C396" s="6"/>
+      <c r="D396" s="6"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C397" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D397" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="E397" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F397" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C398" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D398" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E398" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F398" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C399" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D399" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+        <v>510</v>
+      </c>
+      <c r="D399" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E399" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F399" s="12"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C400" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D400" s="4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D400" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E400" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F400" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C401" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="D401" s="4" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="D401" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="E401" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="F401" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C402" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D402" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D402" s="11" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E402" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F402" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C403" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D403" s="4" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="D403" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E403" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F403" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C404" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D404" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+        <v>719</v>
+      </c>
+      <c r="D404" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="E404" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F404" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C405" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="D405" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D405" s="11" t="s">
+        <v>642</v>
+      </c>
+      <c r="E405" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F405" s="12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A406" s="3"/>
+      <c r="B406" s="3"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A407" s="4" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C406" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D406" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A408" s="3"/>
-      <c r="B408" s="3"/>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A409" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="B409" s="4" t="s">
-        <v>736</v>
+      <c r="B407" s="4" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
